--- a/myDatanKeyWordFile.xlsx
+++ b/myDatanKeyWordFile.xlsx
@@ -16,31 +16,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>//a[@href='https://assurancetech.wordpress.com/2016/07/07/hello-world-for-selenium-a-beginners-guide-with-sample-code/']</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>KeyWord</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>//a[@href='https://assurancetech.wordpress.com/2016/07/07/hybrid-framework-best-option-for-test-automation/']</t>
-  </si>
-  <si>
-    <t>ClickLink</t>
+    <t>OpenBrowser</t>
+  </si>
+  <si>
+    <t>http://way2automation.com/way2auto_jquery/index.php</t>
+  </si>
+  <si>
+    <t>PopulateText</t>
+  </si>
+  <si>
+    <t>Data1</t>
+  </si>
+  <si>
+    <t>Data2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Arshad</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>arshad.zia.1@gmail.com</t>
+  </si>
+  <si>
+    <t>7466533370</t>
+  </si>
+  <si>
+    <t>//*[@id='load_box']//*[@name='name']</t>
+  </si>
+  <si>
+    <t>//*[@id='load_box']//*[@name='phone']</t>
+  </si>
+  <si>
+    <t>//*[@id='load_box']//*[@name='email']</t>
+  </si>
+  <si>
+    <t>//*[@id='load_box']//*[@name='city']</t>
+  </si>
+  <si>
+    <t>//*[@id='load_box']//*[@name='username']</t>
+  </si>
+  <si>
+    <t>//*[@id='load_box']//*[@name='password']</t>
+  </si>
+  <si>
+    <t>clickButton</t>
+  </si>
+  <si>
+    <t>//*[@id='load_box']//*[@type='submit']</t>
+  </si>
+  <si>
+    <t>//*[@id='load_box']//*[@name='country']</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>gst123</t>
+  </si>
+  <si>
+    <t>998877</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +128,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,43 +439,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="118.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3" display="arshad.zia@gmail.com"/>
+    <hyperlink ref="C7" r:id="rId4" display="arshad.zia@gmail.com"/>
+    <hyperlink ref="C8" r:id="rId5" display="arshad.zia@gmail.com"/>
+    <hyperlink ref="C9" r:id="rId6" display="arshad.zia@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
